--- a/REGULAR/PETIL, GLENDA.xlsx
+++ b/REGULAR/PETIL, GLENDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12D836-66B4-4C18-9FEA-B36E23F2F0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,19 +306,28 @@
   </si>
   <si>
     <t>1/9,12,13</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>1/23-31, 2/1-3,6-10,13-17,23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +361,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -543,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,25 +1016,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1323,34 +1341,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A102" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="4425" topLeftCell="A102" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1389,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1407,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1418,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>91</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1409,7 +1429,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1417,7 +1437,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1430,7 +1450,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1447,7 +1467,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1491,7 +1511,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>172.71199999999999</v>
+        <v>173.96199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1501,12 +1521,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>222.25</v>
+        <v>202.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1528,7 +1548,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1554,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -1599,7 +1619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -1642,7 +1662,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -1668,7 +1688,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -1687,7 +1707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1730,7 +1750,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -1749,7 +1769,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1768,7 +1788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43252</v>
       </c>
@@ -1788,7 +1808,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43282</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -1840,7 +1860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1860,7 +1880,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -1906,7 +1926,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43435</v>
       </c>
@@ -1932,7 +1952,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>57</v>
@@ -1954,7 +1974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>60</v>
       </c>
@@ -1972,7 +1992,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -2017,7 +2037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -2043,7 +2063,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -2060,7 +2080,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2086,7 +2106,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2106,7 +2126,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2130,7 +2150,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>48</v>
@@ -2149,7 +2169,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>57</v>
@@ -2168,7 +2188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -2187,7 +2207,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -2206,7 +2226,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -2225,7 +2245,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -2296,7 +2316,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -2315,7 +2335,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43678</v>
       </c>
@@ -2335,7 +2355,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43709</v>
       </c>
@@ -2355,7 +2375,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2407,7 +2427,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -2455,7 +2475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -2477,7 +2497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>67</v>
       </c>
@@ -2495,7 +2515,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>68</v>
@@ -2538,7 +2558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43862</v>
       </c>
@@ -2562,7 +2582,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43891</v>
       </c>
@@ -2582,7 +2602,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -2602,7 +2622,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -2622,7 +2642,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -2646,7 +2666,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44013</v>
       </c>
@@ -2672,7 +2692,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44044</v>
       </c>
@@ -2698,7 +2718,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44075</v>
       </c>
@@ -2724,7 +2744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>70</v>
@@ -2743,7 +2763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>70</v>
@@ -2762,7 +2782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>48</v>
@@ -2781,7 +2801,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -2801,7 +2821,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -2827,7 +2847,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -2846,7 +2866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -2866,7 +2886,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2904,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -2910,7 +2930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -2930,7 +2950,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -2954,7 +2974,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -2974,7 +2994,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44317</v>
       </c>
@@ -2994,7 +3014,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44348</v>
       </c>
@@ -3018,7 +3038,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44378</v>
       </c>
@@ -3038,7 +3058,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -3058,7 +3078,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -3078,7 +3098,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -3098,7 +3118,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44501</v>
       </c>
@@ -3118,7 +3138,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44531</v>
       </c>
@@ -3144,7 +3164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>78</v>
       </c>
@@ -3162,7 +3182,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -3188,7 +3208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44593</v>
       </c>
@@ -3214,7 +3234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>48</v>
@@ -3233,7 +3253,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3252,7 +3272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -3269,7 +3289,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44621</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44652</v>
       </c>
@@ -3315,7 +3335,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44682</v>
       </c>
@@ -3341,7 +3361,7 @@
         <v>44694</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>48</v>
@@ -3360,7 +3380,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -3379,7 +3399,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3405,7 +3425,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -3422,7 +3442,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -3474,7 +3494,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -3500,7 +3520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -3526,7 +3546,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -3548,7 +3568,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44866</v>
       </c>
@@ -3574,7 +3594,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44896</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>87</v>
@@ -3622,7 +3642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>89</v>
       </c>
@@ -3640,7 +3660,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44927</v>
       </c>
@@ -3666,12 +3686,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>44958</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
@@ -3682,31 +3704,37 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="39">
+        <v>21</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A154" si="0">EDATE(A108,1)</f>
         <v>44986</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -3725,7 +3753,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -3744,7 +3772,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -3763,7 +3791,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -3782,7 +3810,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -3801,7 +3829,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -3820,7 +3848,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -3839,7 +3867,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -3858,7 +3886,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -3877,7 +3905,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -3896,7 +3924,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -3915,7 +3943,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -3934,7 +3962,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -3953,7 +3981,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -3972,7 +4000,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -3991,7 +4019,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -4010,7 +4038,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -4029,7 +4057,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -4048,7 +4076,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -4067,7 +4095,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -4086,7 +4114,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -4105,7 +4133,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -4124,7 +4152,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -4143,7 +4171,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -4162,7 +4190,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -4181,7 +4209,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -4200,7 +4228,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -4219,7 +4247,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -4238,7 +4266,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -4257,7 +4285,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -4276,7 +4304,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -4295,7 +4323,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -4314,7 +4342,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -4333,7 +4361,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -4352,7 +4380,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -4371,7 +4399,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -4390,7 +4418,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -4409,7 +4437,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -4428,7 +4456,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -4447,7 +4475,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -4466,7 +4494,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -4485,7 +4513,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -4504,7 +4532,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -4523,7 +4551,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -4542,7 +4570,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -4561,7 +4589,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4577,7 +4605,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4593,7 +4621,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="15"/>
       <c r="C157" s="42"/>
@@ -4624,10 +4652,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4650,28 +4678,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4684,7 +4712,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4713,7 +4741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>137.21199999999999</v>
       </c>
@@ -4737,17 +4765,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4768,7 +4796,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4795,7 +4823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4821,7 +4849,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4847,7 +4875,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4873,7 +4901,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4899,7 +4927,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4925,7 +4953,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4951,7 +4979,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4977,7 +5005,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4997,7 +5025,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5017,7 +5045,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5037,7 +5065,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5058,7 +5086,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5079,7 +5107,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5100,7 +5128,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5121,7 +5149,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5142,7 +5170,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5163,7 +5191,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5184,7 +5212,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5205,7 +5233,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5226,7 +5254,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5247,7 +5275,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5268,7 +5296,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5289,7 +5317,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5310,7 +5338,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5331,7 +5359,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5352,7 +5380,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5373,7 +5401,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5394,7 +5422,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5415,7 +5443,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5436,7 +5464,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5457,7 +5485,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5466,7 +5494,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5475,7 +5503,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5484,7 +5512,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5493,7 +5521,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5502,7 +5530,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5511,7 +5539,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5520,7 +5548,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5529,7 +5557,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5538,7 +5566,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5547,7 +5575,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5556,7 +5584,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5565,7 +5593,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5574,7 +5602,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5583,7 +5611,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5592,7 +5620,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5601,7 +5629,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5610,7 +5638,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5619,7 +5647,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5628,7 +5656,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5637,7 +5665,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5646,7 +5674,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5655,7 +5683,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5664,7 +5692,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5673,7 +5701,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5682,7 +5710,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5691,7 +5719,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5700,7 +5728,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5709,7 +5737,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5718,7 +5746,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PETIL, GLENDA.xlsx
+++ b/REGULAR/PETIL, GLENDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32CC5-ECEA-4E97-84C3-F632E37EFACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -320,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -703,6 +704,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,9 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,25 +1017,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1341,95 +1342,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A102" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <pane ySplit="4428" topLeftCell="A104" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1437,7 +1438,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1450,24 +1451,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1521,12 +1522,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202.5</v>
+        <v>201.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1548,7 +1549,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -1619,7 +1620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -1662,7 +1663,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -1707,7 +1708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1750,7 +1751,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -1769,7 +1770,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1788,7 +1789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43252</v>
       </c>
@@ -1808,7 +1809,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43282</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1880,7 +1881,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -1926,7 +1927,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43435</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>57</v>
@@ -1974,7 +1975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>60</v>
       </c>
@@ -1992,7 +1993,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -2037,7 +2038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -2080,7 +2081,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2126,7 +2127,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>48</v>
@@ -2169,7 +2170,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>57</v>
@@ -2188,7 +2189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -2207,7 +2208,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -2226,7 +2227,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -2245,7 +2246,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -2316,7 +2317,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -2335,7 +2336,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43678</v>
       </c>
@@ -2355,7 +2356,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43709</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -2475,7 +2476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -2497,7 +2498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>67</v>
       </c>
@@ -2515,7 +2516,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>68</v>
@@ -2558,7 +2559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43862</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43891</v>
       </c>
@@ -2602,7 +2603,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -2622,7 +2623,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -2642,7 +2643,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44013</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44044</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44075</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>70</v>
@@ -2763,7 +2764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>70</v>
@@ -2782,7 +2783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>48</v>
@@ -2801,7 +2802,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -2866,7 +2867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -2886,7 +2887,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>75</v>
       </c>
@@ -2904,7 +2905,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44317</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44348</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44378</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -3078,7 +3079,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -3098,7 +3099,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -3118,7 +3119,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44501</v>
       </c>
@@ -3138,7 +3139,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44531</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>78</v>
       </c>
@@ -3182,7 +3183,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44593</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>48</v>
@@ -3253,7 +3254,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3272,7 +3273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -3289,7 +3290,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44621</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44652</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44682</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>44694</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>48</v>
@@ -3380,7 +3381,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -3399,7 +3400,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -3442,7 +3443,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -3568,7 +3569,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44866</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44896</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>87</v>
@@ -3642,7 +3643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>89</v>
       </c>
@@ -3660,7 +3661,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44927</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>44958</v>
@@ -3709,16 +3710,18 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="61" t="s">
+      <c r="K108" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A154" si="0">EDATE(A108,1)</f>
         <v>44986</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C109" s="13">
         <v>1.25</v>
       </c>
@@ -3729,12 +3732,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="49">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -3753,7 +3760,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -3772,7 +3779,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -3791,7 +3798,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -3810,7 +3817,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -3829,7 +3836,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -3848,7 +3855,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -3867,7 +3874,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -3886,7 +3893,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -3905,7 +3912,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -3924,7 +3931,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -3943,7 +3950,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -3962,7 +3969,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -3981,7 +3988,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -4000,7 +4007,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -4019,7 +4026,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -4038,7 +4045,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -4057,7 +4064,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -4076,7 +4083,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -4095,7 +4102,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -4114,7 +4121,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -4133,7 +4140,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -4152,7 +4159,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -4171,7 +4178,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -4190,7 +4197,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -4209,7 +4216,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -4228,7 +4235,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -4247,7 +4254,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -4266,7 +4273,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -4285,7 +4292,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -4304,7 +4311,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -4323,7 +4330,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -4342,7 +4349,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -4361,7 +4368,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -4380,7 +4387,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -4399,7 +4406,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -4418,7 +4425,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -4437,7 +4444,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -4456,7 +4463,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -4475,7 +4482,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -4494,7 +4501,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -4513,7 +4520,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -4532,7 +4539,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -4551,7 +4558,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -4570,7 +4577,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -4589,7 +4596,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4605,7 +4612,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4621,7 +4628,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="15"/>
       <c r="C157" s="42"/>
@@ -4652,10 +4659,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4678,41 +4685,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>137.21199999999999</v>
       </c>
@@ -4765,17 +4772,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4789,14 +4796,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4927,7 +4934,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5005,7 +5012,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5086,7 +5093,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5107,7 +5114,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5149,7 +5156,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5191,7 +5198,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5212,7 +5219,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5275,7 +5282,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5296,7 +5303,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5317,7 +5324,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5380,7 +5387,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5401,7 +5408,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5464,7 +5471,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5485,7 +5492,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5494,7 +5501,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5503,7 +5510,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5512,7 +5519,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5521,7 +5528,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5530,7 +5537,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5539,7 +5546,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5548,7 +5555,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5557,7 +5564,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5566,7 +5573,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5575,7 +5582,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5584,7 +5591,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5593,7 +5600,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5602,7 +5609,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5611,7 +5618,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5620,7 +5627,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5629,7 +5636,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5638,7 +5645,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5647,7 +5654,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5656,7 +5663,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5665,7 +5672,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5674,7 +5681,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5683,7 +5690,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5692,7 +5699,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5701,7 +5708,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5710,7 +5717,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5719,7 +5726,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5728,7 +5735,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5737,7 +5744,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5746,7 +5753,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PETIL, GLENDA.xlsx
+++ b/REGULAR/PETIL, GLENDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32CC5-ECEA-4E97-84C3-F632E37EFACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CE04A-483A-4A7C-9C77-D7D4C7367D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>1/23-31, 2/1-3,6-10,13-17,23/2023</t>
+  </si>
+  <si>
+    <t>3/8,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1346,12 +1349,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K157"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A104" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,7 +1525,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.5</v>
+        <v>199.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <f t="shared" ref="A109:A154" si="0">EDATE(A108,1)</f>
+        <f t="shared" ref="A109:A156" si="0">EDATE(A108,1)</f>
         <v>44986</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -3742,11 +3745,10 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="B110" s="20"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
@@ -3755,17 +3757,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="39">
+        <v>2</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="49" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
-      </c>
-      <c r="B111" s="20"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -3777,12 +3782,14 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="49">
+        <v>45009</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <f t="shared" si="0"/>
-        <v>45078</v>
+        <f>EDATE(A109,1)</f>
+        <v>45017</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3801,7 +3808,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3820,7 +3827,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3839,7 +3846,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3858,7 +3865,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3877,7 +3884,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3896,7 +3903,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3915,7 +3922,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3934,7 +3941,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3953,7 +3960,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3972,7 +3979,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3991,7 +3998,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4010,7 +4017,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4029,7 +4036,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4048,7 +4055,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4067,7 +4074,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="0"/>
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4086,7 +4093,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="0"/>
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4105,7 +4112,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4124,7 +4131,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4143,7 +4150,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="0"/>
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4162,7 +4169,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4181,7 +4188,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="0"/>
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4200,7 +4207,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="0"/>
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4219,7 +4226,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="0"/>
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4238,7 +4245,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="0"/>
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4257,7 +4264,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="0"/>
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4276,7 +4283,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="0"/>
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4295,7 +4302,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="0"/>
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4314,7 +4321,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="0"/>
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4333,7 +4340,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="0"/>
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4352,7 +4359,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4371,7 +4378,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="0"/>
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4390,7 +4397,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="0"/>
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4409,7 +4416,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="0"/>
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4428,7 +4435,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="0"/>
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4447,7 +4454,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="0"/>
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4466,7 +4473,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="0"/>
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4485,7 +4492,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="0"/>
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4504,7 +4511,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="0"/>
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4523,7 +4530,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="0"/>
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4542,7 +4549,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="0"/>
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4561,7 +4568,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="0"/>
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4580,7 +4587,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="0"/>
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4597,7 +4604,10 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="40"/>
+      <c r="A155" s="40">
+        <f t="shared" si="0"/>
+        <v>46327</v>
+      </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -4613,7 +4623,10 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <f t="shared" si="0"/>
+        <v>46357</v>
+      </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -4629,20 +4642,52 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="41"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="43"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H157" s="43"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="15"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="41"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="43"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
